--- a/data/trans_dic/P1002-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04657976868136533</v>
+        <v>0.04678274711273263</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05887459989610881</v>
+        <v>0.05978640369379137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06193560722662612</v>
+        <v>0.06295930781066823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006669808041013103</v>
+        <v>0.00670207501325926</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05186288623205933</v>
+        <v>0.04944358639791943</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1521590050480416</v>
+        <v>0.1473191261382035</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1512929894639821</v>
+        <v>0.1486368119570864</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01733081839715718</v>
+        <v>0.01744012749095113</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05452434958175438</v>
+        <v>0.05563851227830317</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1145614868079696</v>
+        <v>0.1125798157656732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1184675675063152</v>
+        <v>0.1167789491277816</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0149805994757191</v>
+        <v>0.01455097816540113</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1074058321318102</v>
+        <v>0.1122373029101784</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1254781488706027</v>
+        <v>0.1296035473178626</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1367809458874333</v>
+        <v>0.1339348158691971</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03793820752049321</v>
+        <v>0.03629844877296291</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1161967270049</v>
+        <v>0.1189066625142653</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2492650102206964</v>
+        <v>0.2503258703192119</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2467028242182635</v>
+        <v>0.245402394088716</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04752655972888001</v>
+        <v>0.0458766721946262</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.100206641310945</v>
+        <v>0.1024308622404066</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1723036039549341</v>
+        <v>0.1732345227978378</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1808052652578651</v>
+        <v>0.1761747681718743</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03601004351012026</v>
+        <v>0.03438162836619994</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.05424868692233447</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08772231923549828</v>
+        <v>0.08772231923549832</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0525193937934921</v>
+        <v>0.04908754806400616</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05667161973879638</v>
+        <v>0.05488465000323069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01456212996428043</v>
+        <v>0.01433866761441749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04827607730802155</v>
+        <v>0.0487804060538866</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1174339516430228</v>
+        <v>0.1147981505762166</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.118779050469688</v>
+        <v>0.1170576055383039</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05969572218735449</v>
+        <v>0.05864067492800339</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08547819484461211</v>
+        <v>0.08374493265888752</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0893389202527287</v>
+        <v>0.09014319590394745</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09543628839464065</v>
+        <v>0.09471144409253096</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0400187834559104</v>
+        <v>0.04145159813777515</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07173036990056568</v>
+        <v>0.07178558967293958</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1023461348749227</v>
+        <v>0.09858567623471957</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1096376559628211</v>
+        <v>0.1082989437306272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04320059953989939</v>
+        <v>0.04352357508263366</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09934922194067493</v>
+        <v>0.09723764479882487</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1835363479617146</v>
+        <v>0.182087409040917</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1836455235909515</v>
+        <v>0.182188251219245</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1082047462574679</v>
+        <v>0.1098949802093944</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1309819170177249</v>
+        <v>0.1270239756854498</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1296268925970232</v>
+        <v>0.1326596276780239</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1369970411621615</v>
+        <v>0.1369986734064478</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07041174288828089</v>
+        <v>0.06955439867214142</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1040756643911312</v>
+        <v>0.1058574466022383</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02107979030506172</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05957778112752797</v>
+        <v>0.05957778112752798</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03399316251273223</v>
@@ -969,7 +969,7 @@
         <v>0.03547071521109695</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06316466109476698</v>
+        <v>0.063164661094767</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002942160634815904</v>
+        <v>0.002974233598638564</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03318146518069385</v>
+        <v>0.03372545433639919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008953510588318319</v>
+        <v>0.00878530879677481</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03948020564564825</v>
+        <v>0.03909574455448002</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0181673711059618</v>
+        <v>0.01896670078828957</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08072046259789835</v>
+        <v>0.07989647104171117</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02562349521348545</v>
+        <v>0.02951327185157472</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04758128651636964</v>
+        <v>0.04905205802931228</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01260948047320924</v>
+        <v>0.01306748162463388</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06204536812879238</v>
+        <v>0.06440904812578348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0228689154978797</v>
+        <v>0.02292610181137825</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0495279489524833</v>
+        <v>0.04929298013143454</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03347803989861775</v>
+        <v>0.03625235968127453</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0825621901255086</v>
+        <v>0.08426670289499665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04233361439637185</v>
+        <v>0.04066057764544052</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08760922033529836</v>
+        <v>0.08747281671967783</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05549750150744856</v>
+        <v>0.06217197736442382</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1492525583732655</v>
+        <v>0.1509075664748628</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07520723186424634</v>
+        <v>0.07990815618637263</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08664815624251516</v>
+        <v>0.08907420445288915</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03767787733878158</v>
+        <v>0.03778647024420719</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1093683059632033</v>
+        <v>0.1083029077450967</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05198910904974146</v>
+        <v>0.05353305925017877</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08007600404888501</v>
+        <v>0.08102659864763043</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1382295514769583</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08688069902360439</v>
+        <v>0.08688069902360436</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007242895801309847</v>
+        <v>0.005265407087100433</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03946439915820217</v>
+        <v>0.04089703650793237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06332758813438231</v>
+        <v>0.0618161299492762</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03547183443952182</v>
+        <v>0.03635367086529388</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04567764409022861</v>
+        <v>0.048359152356303</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1658359100181464</v>
+        <v>0.1682486527393172</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1502762736491081</v>
+        <v>0.1493762114041576</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08743001514586274</v>
+        <v>0.08773835406028344</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03018132924941078</v>
+        <v>0.0306612033787642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1127164948986763</v>
+        <v>0.1113379737166741</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1123906475375721</v>
+        <v>0.1138230277978155</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0679725077862437</v>
+        <v>0.06774756060715559</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0351065914477905</v>
+        <v>0.03691381754432373</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09087829201643925</v>
+        <v>0.09496445923499185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1212924958512232</v>
+        <v>0.1192897363781051</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09159097571235247</v>
+        <v>0.09148846464381519</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09813201355718598</v>
+        <v>0.1030973285023417</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.250279977157659</v>
+        <v>0.247186695155123</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2286517680244299</v>
+        <v>0.2306378527253414</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1505447851390491</v>
+        <v>0.1510812592124068</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06054840451435541</v>
+        <v>0.0620342855084102</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.161261493983363</v>
+        <v>0.1599726805125007</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1638730336750301</v>
+        <v>0.1647318802093092</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1133139430862969</v>
+        <v>0.109713492345374</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.08020166205196412</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08193004354255269</v>
+        <v>0.08193004354255268</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06028087225137375</v>
@@ -1241,7 +1241,7 @@
         <v>0.06133627167295284</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05621831872195471</v>
+        <v>0.05621831872195472</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03543012850534014</v>
+        <v>0.03374041261199255</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02005725839549097</v>
+        <v>0.0202292688603519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02134292646729656</v>
+        <v>0.01868091323090502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01431678377312093</v>
+        <v>0.01369199868370757</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03308482266126949</v>
+        <v>0.03203511557960437</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1257097025418697</v>
+        <v>0.1274966358880375</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04746158998350009</v>
+        <v>0.04769184600740838</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06254042238063487</v>
+        <v>0.06242704231629565</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04149133441844734</v>
+        <v>0.04015810487447487</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08067425116398033</v>
+        <v>0.08191822532249833</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04035529021471356</v>
+        <v>0.04165024092206059</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0431161214720224</v>
+        <v>0.04374482159755222</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09866852580922209</v>
+        <v>0.09890609346455088</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08268802041912922</v>
+        <v>0.08058990429986054</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07546792922860307</v>
+        <v>0.07560306762948005</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05179732686378379</v>
+        <v>0.05084506334981771</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1018453059801149</v>
+        <v>0.09867049085375224</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.236430514416039</v>
+        <v>0.2247144713241333</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1240077351182723</v>
+        <v>0.123866281413934</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1083187756088804</v>
+        <v>0.1061218476113527</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08411243327543469</v>
+        <v>0.08839469966348498</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1394136814872081</v>
+        <v>0.1431410616349156</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08611305542045669</v>
+        <v>0.08764807388017477</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07125487297001619</v>
+        <v>0.07139327963227994</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1248915564734127</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06996557306176068</v>
+        <v>0.06996557306176064</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02580541702755531</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003260254543174067</v>
+        <v>0.003504981736826094</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04415807412807136</v>
+        <v>0.04582882935545693</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05166167867404722</v>
+        <v>0.05247594602083797</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03374008544815443</v>
+        <v>0.03196881843800448</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01870774719956345</v>
+        <v>0.01904740265771261</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06962472525826488</v>
+        <v>0.07209256826274714</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08471189186092046</v>
+        <v>0.08721969229732127</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04993662231689085</v>
+        <v>0.05155614608292253</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01499493242938096</v>
+        <v>0.01479469117271504</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06901320009189983</v>
+        <v>0.06822326797547502</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07921254028122272</v>
+        <v>0.07639800598569524</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04707984512669493</v>
+        <v>0.04706623232159825</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0328444057055489</v>
+        <v>0.03047965524159169</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.110146773124995</v>
+        <v>0.109501346301984</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1162698018332716</v>
+        <v>0.1173505505801646</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07836655171666525</v>
+        <v>0.07798864507584741</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06653664171778047</v>
+        <v>0.06677840643162716</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1447538056647674</v>
+        <v>0.145962078395323</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1685072670920075</v>
+        <v>0.1708318797958797</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09490995419205642</v>
+        <v>0.09491634242666187</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04413510456337544</v>
+        <v>0.04227392202838524</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1153656890375854</v>
+        <v>0.1128403625710748</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.131788371767878</v>
+        <v>0.1332480414750749</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07740493791958529</v>
+        <v>0.07715436672592646</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03630546542570677</v>
+        <v>0.03494877406784483</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02778118724515815</v>
+        <v>0.02829882181219865</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04139844943490902</v>
+        <v>0.04184817581723302</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05653958298670803</v>
+        <v>0.05616922364575994</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07461449613507543</v>
+        <v>0.07286862467506455</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0556128683201574</v>
+        <v>0.05544073698712709</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09905562450451845</v>
+        <v>0.09408802907026474</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1130855093948634</v>
+        <v>0.1141496560216309</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0578583326680284</v>
+        <v>0.05871034465902262</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04716958737206123</v>
+        <v>0.04754645182430996</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07356407402002614</v>
+        <v>0.07437073463127938</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09120203747811033</v>
+        <v>0.09181963244683794</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07423996969186893</v>
+        <v>0.07131171105241871</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06355038741419435</v>
+        <v>0.06035795587685956</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08341909896852885</v>
+        <v>0.0819247295752545</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1056309241661312</v>
+        <v>0.1015497443307732</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1213599295478009</v>
+        <v>0.1175655977599403</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09596967836686489</v>
+        <v>0.09717806980516809</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1482578198988749</v>
+        <v>0.1485722518218499</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1601522908586605</v>
+        <v>0.1608321548542999</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08748537087572217</v>
+        <v>0.08766335343613921</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.07436392313308172</v>
+        <v>0.07294303475116928</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1072202125996777</v>
+        <v>0.1066284898867224</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1234120372026175</v>
+        <v>0.1239646119411792</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0579816677417242</v>
+        <v>0.05990880234858381</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06461293753943118</v>
+        <v>0.06647368161440448</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.029251518930512</v>
+        <v>0.02797738150398553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0445378561477376</v>
+        <v>0.04387499924059646</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0719078348897576</v>
+        <v>0.07362379342467808</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1270562526925248</v>
+        <v>0.1271313560355345</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05172884548883192</v>
+        <v>0.05179476408169237</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1269115989272283</v>
+        <v>0.1295459664652732</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0714606548151283</v>
+        <v>0.07159144126268997</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1036109443995771</v>
+        <v>0.103280573379609</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04499926980975652</v>
+        <v>0.04469900669616193</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.09142019225141325</v>
+        <v>0.09072685462552275</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09731050942418916</v>
+        <v>0.1017197850021704</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1126772233755159</v>
+        <v>0.1089452910371213</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05891457870347012</v>
+        <v>0.05721850251606533</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07400542180000748</v>
+        <v>0.07465681105119212</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1163793728210422</v>
+        <v>0.1157007094917712</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1775608974827967</v>
+        <v>0.1795521367107464</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0867551544659501</v>
+        <v>0.09002579505087761</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1680548197741042</v>
+        <v>0.1705457127964641</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1007392539707846</v>
+        <v>0.09996522299286398</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1377598914651749</v>
+        <v>0.1358353717741904</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06846041484670053</v>
+        <v>0.06819446651193167</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1184863936349355</v>
+        <v>0.1176324592893915</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.08063543046025795</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.08338369976374024</v>
+        <v>0.08338369976374026</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04561791769455013</v>
+        <v>0.04485752845310029</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05819748872309573</v>
+        <v>0.05858668507703232</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04640328862307517</v>
+        <v>0.04563499933950266</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.04986364540248824</v>
+        <v>0.04996355194613659</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.07574534866859473</v>
+        <v>0.07576039753044053</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1283439737729309</v>
+        <v>0.1258722863107273</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.09734593562487395</v>
+        <v>0.09576970858402277</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.09902182280590767</v>
+        <v>0.09856670474054721</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06262181069777648</v>
+        <v>0.06264707577693479</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.09662109567559635</v>
+        <v>0.09643417675379984</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.07390109124363026</v>
+        <v>0.07444105189315071</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.07761295882796553</v>
+        <v>0.07769003416436204</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06062996508829491</v>
+        <v>0.0606433966155803</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0769358020729087</v>
+        <v>0.07624692242660905</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.06226696394403217</v>
+        <v>0.06145104242093648</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06600516980414559</v>
+        <v>0.066107937619137</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.09442693102527638</v>
+        <v>0.09578016608480538</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1526526451169389</v>
+        <v>0.1513068300136877</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1189623545781974</v>
+        <v>0.118876249167771</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1174174911417711</v>
+        <v>0.1173348062631085</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.0751566894242351</v>
+        <v>0.07453658112097733</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1124434051774719</v>
+        <v>0.1122331801093294</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.08787393885071544</v>
+        <v>0.0873515454091955</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.08966912292211414</v>
+        <v>0.08969348534244773</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12717</v>
+        <v>12772</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17353</v>
+        <v>17621</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18194</v>
+        <v>18495</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2127</v>
+        <v>2137</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13528</v>
+        <v>12897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>43707</v>
+        <v>42317</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>43679</v>
+        <v>42912</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5478</v>
+        <v>5512</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29108</v>
+        <v>29703</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>66673</v>
+        <v>65520</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>69003</v>
+        <v>68020</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9511</v>
+        <v>9239</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29323</v>
+        <v>30642</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36983</v>
+        <v>38199</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40181</v>
+        <v>39345</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12096</v>
+        <v>11574</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30309</v>
+        <v>31015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>71600</v>
+        <v>71905</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>71224</v>
+        <v>70848</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15021</v>
+        <v>14500</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>53495</v>
+        <v>54683</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>100278</v>
+        <v>100820</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>105313</v>
+        <v>102615</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22863</v>
+        <v>21829</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25896</v>
+        <v>24204</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28649</v>
+        <v>27746</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7319</v>
+        <v>7206</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>25618</v>
+        <v>25885</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>59181</v>
+        <v>57852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>62087</v>
+        <v>61187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>31226</v>
+        <v>30674</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>46650</v>
+        <v>45704</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>89073</v>
+        <v>89875</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>98131</v>
+        <v>97386</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>41046</v>
+        <v>42515</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>77211</v>
+        <v>77270</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50464</v>
+        <v>48610</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55425</v>
+        <v>54748</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21712</v>
+        <v>21874</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>52719</v>
+        <v>51599</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>92493</v>
+        <v>91763</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>95993</v>
+        <v>95232</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>56600</v>
+        <v>57484</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>71484</v>
+        <v>69324</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>129241</v>
+        <v>132265</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>140865</v>
+        <v>140867</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>72218</v>
+        <v>71339</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>112027</v>
+        <v>113945</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10752</v>
+        <v>10929</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2852</v>
+        <v>2799</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12475</v>
+        <v>12354</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6094</v>
+        <v>6362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27527</v>
+        <v>27246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8617</v>
+        <v>9926</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16930</v>
+        <v>17454</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8250</v>
+        <v>8550</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>41264</v>
+        <v>42836</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>14976</v>
+        <v>15014</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>33274</v>
+        <v>33116</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10674</v>
+        <v>11559</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26754</v>
+        <v>27306</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13486</v>
+        <v>12953</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27684</v>
+        <v>27641</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18615</v>
+        <v>20853</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50898</v>
+        <v>51462</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25293</v>
+        <v>26874</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30831</v>
+        <v>31694</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24651</v>
+        <v>24722</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>72737</v>
+        <v>72029</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>34046</v>
+        <v>35057</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>53796</v>
+        <v>54435</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2598</v>
+        <v>1889</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14759</v>
+        <v>15295</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23429</v>
+        <v>22870</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13194</v>
+        <v>13521</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16967</v>
+        <v>17963</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>64502</v>
+        <v>65440</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>58199</v>
+        <v>57851</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36892</v>
+        <v>37022</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22036</v>
+        <v>22387</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>85995</v>
+        <v>84943</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>85107</v>
+        <v>86192</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>53964</v>
+        <v>53785</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12592</v>
+        <v>13240</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33987</v>
+        <v>35515</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44874</v>
+        <v>44133</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34067</v>
+        <v>34028</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36452</v>
+        <v>38296</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>97347</v>
+        <v>96144</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>88553</v>
+        <v>89322</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>63524</v>
+        <v>63750</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>44208</v>
+        <v>45293</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>123032</v>
+        <v>122048</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>124092</v>
+        <v>124743</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>89961</v>
+        <v>87102</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7203</v>
+        <v>6860</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4265</v>
+        <v>4301</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4508</v>
+        <v>3946</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2944</v>
+        <v>2816</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6871</v>
+        <v>6653</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>27605</v>
+        <v>27997</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>10374</v>
+        <v>10425</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>14173</v>
+        <v>14147</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17052</v>
+        <v>16504</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>34868</v>
+        <v>35406</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>17345</v>
+        <v>17902</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>18638</v>
+        <v>18910</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20060</v>
+        <v>20108</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17581</v>
+        <v>17135</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15940</v>
+        <v>15969</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10653</v>
+        <v>10457</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21150</v>
+        <v>20491</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>51918</v>
+        <v>49345</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27106</v>
+        <v>27076</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24547</v>
+        <v>24049</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>34568</v>
+        <v>36328</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>60256</v>
+        <v>61867</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>37012</v>
+        <v>37672</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>30802</v>
+        <v>30862</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>883</v>
+        <v>949</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12052</v>
+        <v>12508</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13593</v>
+        <v>13808</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9134</v>
+        <v>8654</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5203</v>
+        <v>5298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>19497</v>
+        <v>20188</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>23136</v>
+        <v>23821</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13171</v>
+        <v>13598</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>8232</v>
+        <v>8122</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>38161</v>
+        <v>37725</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>42477</v>
+        <v>40968</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>25162</v>
+        <v>25155</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8895</v>
+        <v>8254</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30062</v>
+        <v>29886</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>30593</v>
+        <v>30878</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21214</v>
+        <v>21112</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18507</v>
+        <v>18574</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>40536</v>
+        <v>40874</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>46022</v>
+        <v>46657</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>25033</v>
+        <v>25034</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>24228</v>
+        <v>23206</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>63792</v>
+        <v>62396</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>70670</v>
+        <v>71453</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>41370</v>
+        <v>41236</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>22329</v>
+        <v>21494</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>18413</v>
+        <v>18756</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>27180</v>
+        <v>27476</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>40691</v>
+        <v>40424</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>47620</v>
+        <v>46506</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>38535</v>
+        <v>38415</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>68477</v>
+        <v>65042</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>87308</v>
+        <v>88130</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>72511</v>
+        <v>73579</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>63948</v>
+        <v>64459</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>99153</v>
+        <v>100241</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>136050</v>
+        <v>136971</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>45660</v>
+        <v>43859</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>42120</v>
+        <v>40005</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>54769</v>
+        <v>53788</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>76021</v>
+        <v>73084</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>77454</v>
+        <v>75033</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>66498</v>
+        <v>67335</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>102490</v>
+        <v>102707</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>123647</v>
+        <v>124172</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>109641</v>
+        <v>109864</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>100815</v>
+        <v>98889</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>144517</v>
+        <v>143719</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>184099</v>
+        <v>184923</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>43126</v>
+        <v>44560</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>50279</v>
+        <v>51727</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>22775</v>
+        <v>21783</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>35544</v>
+        <v>35015</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>56341</v>
+        <v>57685</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>104676</v>
+        <v>104738</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>42737</v>
+        <v>42791</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>105506</v>
+        <v>107696</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>109142</v>
+        <v>109342</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>165986</v>
+        <v>165457</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>72213</v>
+        <v>71731</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>148960</v>
+        <v>147831</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>72379</v>
+        <v>75659</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>87681</v>
+        <v>84777</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>45870</v>
+        <v>44549</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>59062</v>
+        <v>59582</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>91185</v>
+        <v>90653</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>146284</v>
+        <v>147925</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>71674</v>
+        <v>74376</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>139709</v>
+        <v>141780</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>153860</v>
+        <v>152677</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>220693</v>
+        <v>217610</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>109862</v>
+        <v>109435</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>193062</v>
+        <v>191671</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>149469</v>
+        <v>146978</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>199314</v>
+        <v>200647</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>157509</v>
+        <v>154901</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>176096</v>
+        <v>176449</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>255958</v>
+        <v>256009</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>456431</v>
+        <v>447641</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>345047</v>
+        <v>339460</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>369683</v>
+        <v>367984</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>416795</v>
+        <v>416963</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>674521</v>
+        <v>673216</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>512792</v>
+        <v>516538</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>563851</v>
+        <v>564411</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>198657</v>
+        <v>198701</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>263489</v>
+        <v>261130</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>211356</v>
+        <v>208586</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>233101</v>
+        <v>233464</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>319087</v>
+        <v>323660</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>542880</v>
+        <v>538094</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>421667</v>
+        <v>421362</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>438360</v>
+        <v>438052</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>500223</v>
+        <v>496096</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>784978</v>
+        <v>783511</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>609748</v>
+        <v>606123</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>651438</v>
+        <v>651615</v>
       </c>
     </row>
     <row r="40">
